--- a/Initial Builder.xlsx
+++ b/Initial Builder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Downloads/DICE Revenue Modeler/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2CDF15-19BA-EB47-8754-AA2CD601D64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73170F1-342D-8944-9E95-12EA5343E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,16 +495,16 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="E2" s="2">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="F2">
-        <v>200000</v>
+        <v>150000</v>
       </c>
       <c r="G2">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -518,16 +518,16 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>44569</v>
+        <v>44592</v>
       </c>
       <c r="E3" s="2">
-        <v>44591</v>
+        <v>44614</v>
       </c>
       <c r="F3">
-        <v>400000</v>
+        <v>150000</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -541,16 +541,16 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>44562</v>
+        <v>44585</v>
       </c>
       <c r="E4" s="2">
-        <v>44568</v>
+        <v>44591</v>
       </c>
       <c r="F4">
-        <v>100000</v>
+        <v>350000</v>
       </c>
       <c r="G4">
-        <v>6.5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -564,16 +564,16 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>44569</v>
+        <v>44592</v>
       </c>
       <c r="E5" s="2">
-        <v>44591</v>
+        <v>44614</v>
       </c>
       <c r="F5">
-        <v>300000</v>
+        <v>350000</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>

--- a/Initial Builder.xlsx
+++ b/Initial Builder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73170F1-342D-8944-9E95-12EA5343E8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0419A9A-6AF1-D94C-888B-1D5A0BE2DCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>platform</t>
   </si>
@@ -58,10 +58,16 @@
     <t>iOS</t>
   </si>
   <si>
-    <t>iOS Facebook Launche Week</t>
-  </si>
-  <si>
     <t>iOS Facebook Post Launch Week</t>
+  </si>
+  <si>
+    <t>iOS Facebook Launch Week</t>
+  </si>
+  <si>
+    <t>Android Facebook Reinvest Month</t>
+  </si>
+  <si>
+    <t>iOS Facebook Reinvest Month</t>
   </si>
 </sst>
 </file>
@@ -452,9 +458,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -532,25 +540,25 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>44585</v>
+        <v>44652</v>
       </c>
       <c r="E4" s="2">
-        <v>44591</v>
+        <v>44681</v>
       </c>
       <c r="F4">
-        <v>350000</v>
+        <v>1800000</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -564,16 +572,62 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="E5" s="2">
-        <v>44614</v>
+        <v>44591</v>
       </c>
       <c r="F5">
         <v>350000</v>
       </c>
       <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44614</v>
+      </c>
+      <c r="F6">
+        <v>350000</v>
+      </c>
+      <c r="G6">
         <v>12.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="F7">
+        <v>1200000</v>
+      </c>
+      <c r="G7">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Initial Builder.xlsx
+++ b/Initial Builder.xlsx
@@ -1,83 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reyna.feng/Documents/Reyna/Wimo/Games_RevenueModeler/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0419A9A-6AF1-D94C-888B-1D5A0BE2DCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>campaign</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>start_date</t>
-  </si>
-  <si>
-    <t>end_date</t>
-  </si>
-  <si>
-    <t>total_spend</t>
-  </si>
-  <si>
-    <t>cpi</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>Android Facebook Launch Week</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>Android Facebook Post Launch Week</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>iOS Facebook Post Launch Week</t>
-  </si>
-  <si>
-    <t>iOS Facebook Launch Week</t>
-  </si>
-  <si>
-    <t>Android Facebook Reinvest Month</t>
-  </si>
-  <si>
-    <t>iOS Facebook Reinvest Month</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,14 +67,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -180,7 +113,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -212,27 +145,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,24 +179,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -457,50 +354,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="5" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>platform</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>campaign</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>start_date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>end_date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>total_spend</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cpi</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Android Facebook Launch Week</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
       </c>
       <c r="D2" s="2">
         <v>44585</v>
@@ -515,15 +431,21 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Android</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Android Facebook Post Launch Week</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
       </c>
       <c r="D3" s="2">
         <v>44592</v>
@@ -538,96 +460,62 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>iOS Facebook Launch Week</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
       </c>
       <c r="D4" s="2">
-        <v>44652</v>
+        <v>44585</v>
       </c>
       <c r="E4" s="2">
-        <v>44681</v>
+        <v>44591</v>
       </c>
       <c r="F4">
-        <v>1800000</v>
+        <v>350000</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>iOS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>iOS Facebook Post Launch Week</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
       </c>
       <c r="D5" s="2">
-        <v>44585</v>
+        <v>44592</v>
       </c>
       <c r="E5" s="2">
-        <v>44591</v>
+        <v>44614</v>
       </c>
       <c r="F5">
         <v>350000</v>
       </c>
       <c r="G5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2">
-        <v>44592</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44614</v>
-      </c>
-      <c r="F6">
-        <v>350000</v>
-      </c>
-      <c r="G6">
         <v>12.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
-        <v>44652</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44681</v>
-      </c>
-      <c r="F7">
-        <v>1200000</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
